--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2838993.725192095</v>
+        <v>-2841562.14863104</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>86.3723959432167</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369554</v>
       </c>
       <c r="T11" t="n">
-        <v>61.16579047100676</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
         <v>322.3197523929327</v>
@@ -1531,22 +1531,22 @@
         <v>140.3256047741475</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6942566937321</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>119.5127463220889</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>88.46218005405809</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535779</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556703</v>
+        <v>62.01093634556721</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516889</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
         <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
         <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645569</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.6261700860526</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.1281608555091</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>72.0165704240905</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844564</v>
+        <v>14.65571344844565</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369554</v>
+        <v>82.26654546369555</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151399</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
         <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
         <v>322.3197523929327</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>88.46218005405792</v>
       </c>
       <c r="E16" t="n">
         <v>119.5127463220889</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535778</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556676</v>
+        <v>62.01093634556721</v>
       </c>
       <c r="S16" t="n">
         <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V16" t="n">
-        <v>199.033278884298</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W16" t="n">
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645569</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6634370276145</v>
@@ -1844,19 +1844,19 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279347</v>
+        <v>239.1260855150959</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7866886776101</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
         <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>312.0222478491202</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442476</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510298</v>
+        <v>35.29140884510296</v>
       </c>
       <c r="T17" t="n">
         <v>130.0216171965473</v>
@@ -1910,7 +1910,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129808</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555498</v>
+        <v>93.35046815555495</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7191200751395</v>
+        <v>74.71912007513947</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349632</v>
+        <v>72.53760970349629</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985839</v>
+        <v>71.52469507985836</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595537</v>
+        <v>92.12945531595534</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124793</v>
+        <v>70.8586619712479</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676524</v>
+        <v>22.45606746676523</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697447</v>
+        <v>15.03579972697446</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2894823809939</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.31548526254</v>
+        <v>274.7322952551649</v>
       </c>
       <c r="V19" t="n">
         <v>178.2412903807551</v>
@@ -2090,13 +2090,13 @@
         <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986386</v>
+        <v>220.6539622524368</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510298</v>
+        <v>35.29140884510299</v>
       </c>
       <c r="T20" t="n">
-        <v>72.32909098043859</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U20" t="n">
         <v>177.0988190158291</v>
@@ -2141,7 +2141,7 @@
         <v>253.855905527062</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X20" t="n">
         <v>295.8347477353961</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2257,7 @@
         <v>70.85866197124793</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676524</v>
+        <v>22.45606746676525</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697447</v>
+        <v>77.45260971959874</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2305,7 +2305,7 @@
         <v>151.8133024459643</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.1051104016465</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510298</v>
+        <v>35.29140884510299</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>70.85866197124793</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676524</v>
+        <v>22.45606746676525</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697447</v>
+        <v>15.03579972697449</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2894823809939</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T25" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>212.31548526254</v>
+        <v>274.7322952551642</v>
       </c>
       <c r="V25" t="n">
         <v>178.2412903807551</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870207</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124541</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1869.621200509674</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.851831371768</v>
+        <v>797.5462691617629</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.779280567523</v>
+        <v>797.5462691617629</v>
       </c>
       <c r="E11" t="n">
-        <v>838.1841757717837</v>
+        <v>438.9511643660245</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3914187846815</v>
+        <v>351.7063199789369</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>351.7063199789369</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31586739020949</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938772</v>
       </c>
       <c r="T11" t="n">
-        <v>3263.822194870781</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U11" t="n">
-        <v>3263.822194870781</v>
+        <v>2837.38637220184</v>
       </c>
       <c r="V11" t="n">
-        <v>3263.822194870781</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.246687403172</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X11" t="n">
-        <v>2591.974076944597</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y11" t="n">
-        <v>2229.027892771291</v>
+        <v>1498.722330561286</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2616458242701</v>
+        <v>418.3308347658144</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5186106988685</v>
+        <v>276.5877996404128</v>
       </c>
       <c r="D13" t="n">
-        <v>636.5951190890382</v>
+        <v>276.5877996404128</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8751733091503</v>
+        <v>155.8678538605249</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1783736137453</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909696</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
@@ -5203,19 +5203,19 @@
         <v>368.9259401504664</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601982</v>
+        <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
@@ -5224,25 +5224,25 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.87327193841</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.299804310442</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.39008523859</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V13" t="n">
-        <v>1621.39008523859</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.166063004135</v>
+        <v>967.1819862300854</v>
       </c>
       <c r="X13" t="n">
-        <v>1158.369659908623</v>
+        <v>766.3855831345734</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.716962852004</v>
+        <v>572.7861517935487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1443.185377840735</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="C14" t="n">
-        <v>1101.416008702829</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="D14" t="n">
-        <v>770.3434578985836</v>
+        <v>808.2430874954233</v>
       </c>
       <c r="E14" t="n">
-        <v>411.7483531028447</v>
+        <v>808.2430874954233</v>
       </c>
       <c r="F14" t="n">
-        <v>81.31586739020933</v>
+        <v>424.4503305083211</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31586739020933</v>
+        <v>351.7063199789368</v>
       </c>
       <c r="H14" t="n">
         <v>81.31586739020933</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938772</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125499</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386372201841</v>
+        <v>2837.38637220184</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.386372201841</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W14" t="n">
-        <v>2511.810864734232</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.538254275658</v>
+        <v>1861.668514734591</v>
       </c>
       <c r="Y14" t="n">
-        <v>1802.592070102351</v>
+        <v>1498.722330561285</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2616458242701</v>
+        <v>418.3308347658141</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5186106988685</v>
+        <v>276.5877996404126</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5951190890382</v>
+        <v>187.2320622120712</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8751733091505</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137455</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909696</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403549</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504663</v>
+        <v>368.9259401504668</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601979</v>
+        <v>712.1377427601984</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.510581378377</v>
@@ -5461,25 +5461,25 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567742</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.380535567742</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U16" t="n">
-        <v>1913.380535567742</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.336819522996</v>
+        <v>1229.40600846454</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.112797288541</v>
+        <v>967.1819862300852</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.316394193029</v>
+        <v>766.3855831345732</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.716962852004</v>
+        <v>572.7861517935485</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>1518.912701884256</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.592965694423</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9700478382506</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>940.9700478382506</v>
+        <v>966.225729516291</v>
       </c>
       <c r="F17" t="n">
-        <v>604.6269237992217</v>
+        <v>629.8826054772621</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728376</v>
+        <v>289.4529360728375</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5534,22 +5534,22 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021646</v>
+        <v>3158.622967021645</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453069</v>
+        <v>2723.315164453068</v>
       </c>
       <c r="W17" t="n">
         <v>2445.189289933533</v>
@@ -5589,16 +5589,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877569</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104287</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486716</v>
+        <v>399.3469543486714</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168571</v>
+        <v>326.076641516857</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695254</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G19" t="n">
-        <v>160.769418894823</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325944</v>
+        <v>89.19501286325941</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,16 +5692,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.016485353171</v>
+        <v>1795.063768174004</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.892650673276</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
         <v>1370.432564549498</v>
@@ -5710,13 +5710,13 @@
         <v>1190.39085709419</v>
       </c>
       <c r="W19" t="n">
-        <v>975.616467807808</v>
+        <v>975.6164678078077</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603694</v>
+        <v>822.269697660369</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.119899267418</v>
+        <v>676.1198992674176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.313855409962</v>
+        <v>1518.912701884255</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994119220129</v>
+        <v>1224.592965694422</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371201363957</v>
+        <v>940.9700478382504</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2257295162916</v>
+        <v>629.8245759905848</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772627</v>
+        <v>406.9417858366082</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728376</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
-        <v>3216.898246027816</v>
+        <v>3158.622967021645</v>
       </c>
       <c r="U20" t="n">
-        <v>3038.010550052231</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V20" t="n">
-        <v>2781.590443459239</v>
+        <v>2723.315164453068</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.590443459239</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.767465948738</v>
+        <v>2146.366312423032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.270914723505</v>
+        <v>1830.869761197798</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5905,19 +5905,19 @@
         <v>89.19501286325944</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,28 +5929,28 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106871596599</v>
+        <v>1849.059588775766</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174004</v>
+        <v>1732.016485353171</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673276</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370331</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.39085709419</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628641</v>
+        <v>975.616467807808</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812023</v>
+        <v>822.2696976603694</v>
       </c>
       <c r="Y22" t="n">
         <v>676.119899267418</v>
@@ -5969,13 +5969,13 @@
         <v>1567.859448883919</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027747</v>
+        <v>1284.236531027746</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800814</v>
+        <v>973.0910591800809</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410525</v>
+        <v>636.747935141052</v>
       </c>
       <c r="G23" t="n">
         <v>296.3182657366275</v>
@@ -5987,28 +5987,28 @@
         <v>73.37744609597334</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2565770549988</v>
+        <v>262.2565770549987</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759507448453</v>
+        <v>596.0759507448452</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.043222190885</v>
+        <v>1580.642068665178</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.822039249667</v>
+        <v>2127.42088572396</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.794510129004</v>
+        <v>2630.393356603297</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3343.748444050243</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241864</v>
+        <v>3592.034805805925</v>
       </c>
       <c r="R23" t="n">
         <v>3668.872304798667</v>
@@ -6017,7 +6017,7 @@
         <v>3633.224417076341</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211142</v>
+        <v>3501.889450211141</v>
       </c>
       <c r="U23" t="n">
         <v>3323.001754235556</v>
@@ -6060,25 +6060,25 @@
         <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443539</v>
+        <v>92.38473769443542</v>
       </c>
       <c r="I24" t="n">
         <v>73.37744609597334</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865907</v>
+        <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669378</v>
+        <v>405.3189145669377</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796031</v>
+        <v>772.0170748796038</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293400101919</v>
+        <v>1219.29340010192</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656373</v>
+        <v>1692.816443656374</v>
       </c>
       <c r="O24" t="n">
         <v>2103.777723074429</v>
@@ -6139,7 +6139,7 @@
         <v>167.6347485586129</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704934</v>
+        <v>96.06034252704936</v>
       </c>
       <c r="I25" t="n">
         <v>73.37744609597334</v>
@@ -6148,13 +6148,13 @@
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917853</v>
+        <v>322.4872614917852</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041055398304</v>
+        <v>983.2041055398303</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612482245695</v>
@@ -6166,16 +6166,16 @@
         <v>1856.549581599768</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159877752283</v>
+        <v>1934.159877752282</v>
       </c>
       <c r="R25" t="n">
         <v>1918.972201260389</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.881815016961</v>
+        <v>1801.929097837794</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.757980337066</v>
+        <v>1654.805263157898</v>
       </c>
       <c r="U25" t="n">
         <v>1377.297894213288</v>
@@ -6224,19 +6224,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>875.932246148438</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1326.966459396847</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226675</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O26" t="n">
         <v>3355.268050164795</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6303,13 +6303,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>2240.457506552424</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611206</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490543</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,16 +6640,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.524582776558</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.303399835341</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3728.510094301076</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6938,28 +6938,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N35" t="n">
-        <v>2735.569460712894</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3238.541931592231</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3633.31629794941</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -6968,7 +6968,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7081,13 +7081,13 @@
         <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
@@ -7096,10 +7096,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7126,13 +7126,13 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697161</v>
@@ -7163,7 +7163,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7172,31 +7172,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1635.769886219269</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
-        <v>2169.301790891193</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611205</v>
+        <v>2265.111559082034</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7205,7 +7205,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,25 +7330,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N41" t="n">
-        <v>2568.163811692541</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>3145.07620941149</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768668</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7582,10 +7582,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467782</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
         <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.303399835341</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3728.510094301076</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,28 +7801,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960309</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764237</v>
+        <v>212.1614152764233</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188446</v>
+        <v>225.9304893188441</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603989</v>
+        <v>219.4018707603983</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030244</v>
+        <v>218.2916099030238</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661494</v>
+        <v>219.5965380661489</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111185</v>
+        <v>222.270060511118</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357296</v>
+        <v>123.6869003357294</v>
       </c>
       <c r="K6" t="n">
-        <v>132.456345834481</v>
+        <v>132.4563458344808</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915384</v>
+        <v>131.313457491538</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437705</v>
+        <v>133.6842191437701</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511139</v>
+        <v>122.6682558511134</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891803</v>
+        <v>134.6617264891799</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357713</v>
+        <v>127.6062572357709</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369108</v>
+        <v>135.7248343369106</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970312</v>
+        <v>130.728012997031</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216064</v>
+        <v>134.5431653216061</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145264</v>
+        <v>123.4071347145262</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663804</v>
+        <v>134.5047345663802</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299174</v>
+        <v>134.3465531299172</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.7991449754606</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.0004368039793</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>274.8351763665425</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>274.8351763665441</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4868774152284</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>174.4519134245564</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>21.74982042514827</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>117.9051702753176</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>117.9051702753165</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>71.87446026386806</v>
+        <v>131.2335379367254</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>221.2853655744098</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>74.68679478748675</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>343.5485285966304</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>21.74982042514776</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731945</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>293.5824334740144</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844562</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369552</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>115.8309633441331</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344217</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.03765164439284</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535778</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069616</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.03726694156192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>52.82666856172205</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>311.9839389048826</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.23207663967412</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535781</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516889</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811326</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>26.18314811504973</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.25045331283874</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>25.00312486126035</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3257305462017</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>57.69252621610869</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743401</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1268218.864126345</v>
+        <v>1268218.864126344</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26332,7 @@
         <v>19863.30033404607</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660706</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660709</v>
@@ -26341,19 +26341,19 @@
         <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945323</v>
+        <v>14118.19859945395</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072309</v>
+        <v>16714.64353072241</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905845</v>
+        <v>22820.44161905851</v>
       </c>
       <c r="J3" t="n">
         <v>25410.44272728112</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.154320027</v>
+        <v>426739.1543200267</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.467102109</v>
+        <v>37585.46710210902</v>
       </c>
       <c r="F4" t="n">
         <v>37585.46710210902</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521034</v>
+        <v>74613.22686521035</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521034</v>
+        <v>74613.22686521037</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913907</v>
+        <v>85473.00365913913</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646598</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112991</v>
+        <v>33965.59259112993</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
@@ -26479,37 +26479,37 @@
         <v>76569.58029657604</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.7330569645</v>
+        <v>80518.73305696448</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.7330569645</v>
+        <v>80518.73305696448</v>
       </c>
       <c r="I5" t="n">
         <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="C6" t="n">
-        <v>-454340.9130087057</v>
+        <v>-454345.3141831766</v>
       </c>
       <c r="D6" t="n">
-        <v>-452218.5096162613</v>
+        <v>-452222.8951771202</v>
       </c>
       <c r="E6" t="n">
-        <v>-1213085.341614284</v>
+        <v>-1213314.091313313</v>
       </c>
       <c r="F6" t="n">
-        <v>-95916.50014236408</v>
+        <v>-96145.24984139268</v>
       </c>
       <c r="G6" t="n">
-        <v>-172848.7688830028</v>
+        <v>-172915.0432742589</v>
       </c>
       <c r="H6" t="n">
-        <v>-135268.6595881288</v>
+        <v>-135334.9339793849</v>
       </c>
       <c r="I6" t="n">
-        <v>-173503.7846330353</v>
+        <v>-173503.7846330354</v>
       </c>
       <c r="J6" t="n">
         <v>-175017.7037619461</v>
@@ -26549,13 +26549,13 @@
         <v>-149607.261034665</v>
       </c>
       <c r="L6" t="n">
-        <v>-187187.370329539</v>
+        <v>-187187.3703295391</v>
       </c>
       <c r="M6" t="n">
-        <v>-356795.8293267378</v>
+        <v>-356795.829326738</v>
       </c>
       <c r="N6" t="n">
-        <v>-149607.2610346649</v>
+        <v>-149607.261034665</v>
       </c>
       <c r="O6" t="n">
         <v>-149607.261034665</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F2" t="n">
         <v>26.92121632448031</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H2" t="n">
         <v>73.89635294307286</v>
@@ -26707,7 +26707,7 @@
         <v>73.89635294307286</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953726</v>
+        <v>15.50424729953805</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>917.2180761996667</v>
@@ -26814,10 +26814,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953726</v>
+        <v>15.50424729953805</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958806</v>
+        <v>19.51701341958727</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737384</v>
+        <v>85.81662079737407</v>
       </c>
       <c r="J4" t="n">
         <v>97.11838500894771</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27634,10 +27634,10 @@
         <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.072964971349</v>
+        <v>208.0729649713489</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593852312</v>
+        <v>6.659224593852044</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116784384</v>
+        <v>3.259908116784042</v>
       </c>
       <c r="R5" t="n">
-        <v>145.953866988669</v>
+        <v>145.9538669886688</v>
       </c>
       <c r="S5" t="n">
-        <v>207.599755876343</v>
+        <v>207.5997558763429</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388212</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234558</v>
+        <v>88.24844095234552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573512</v>
+        <v>98.08728580573501</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27749,7 +27749,7 @@
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837155</v>
+        <v>225.9391880837154</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27795,10 +27795,10 @@
         <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997603</v>
+        <v>91.38251566997593</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263554</v>
+        <v>19.02122493263537</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946425</v>
+        <v>83.82090190946414</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059644</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029852</v>
+        <v>223.5293580029851</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9212163244803</v>
+        <v>26.92121632448031</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="S19" t="n">
-        <v>11.47954295044804</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307286</v>
+        <v>11.47954295044798</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307286</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>73.89635294307286</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307286</v>
+        <v>11.4795429504486</v>
       </c>
       <c r="S22" t="n">
         <v>73.89635294307286</v>
@@ -29025,7 +29025,7 @@
         <v>73.89635294307286</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.47954295044826</v>
+        <v>73.89635294307286</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>73.89635294307286</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29244,13 +29244,13 @@
         <v>73.89635294307286</v>
       </c>
       <c r="S25" t="n">
-        <v>11.47954295044804</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="T25" t="n">
         <v>73.89635294307286</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307286</v>
+        <v>11.47954295044866</v>
       </c>
       <c r="V25" t="n">
         <v>73.89635294307286</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859273</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859212</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235994875</v>
+        <v>0.06232863235995192</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563254</v>
+        <v>0.6383231061563577</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599056927</v>
+        <v>2.402924599057048</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760205</v>
+        <v>5.290064760760473</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768556837</v>
+        <v>7.92843576855724</v>
       </c>
       <c r="L5" t="n">
-        <v>9.83592565114262</v>
+        <v>9.835925651143119</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687386</v>
+        <v>10.94436246687441</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356656</v>
+        <v>11.12145369356713</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553732</v>
+        <v>10.50167335553786</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151087</v>
+        <v>8.962935244151542</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.73079109776042</v>
+        <v>6.730791097760762</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480634</v>
+        <v>3.915250952480833</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902334</v>
+        <v>1.420313709902406</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556758</v>
+        <v>0.2728435881556897</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588795899</v>
+        <v>0.004986290588796152</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240091</v>
+        <v>0.0333487583424026</v>
       </c>
       <c r="H6" t="n">
-        <v>0.322078797675293</v>
+        <v>0.3220787976753094</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069505</v>
+        <v>1.148191899069563</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937097</v>
+        <v>3.150726330937257</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139877958</v>
+        <v>5.385093139878231</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288335777</v>
+        <v>7.240922288336145</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778247807</v>
+        <v>8.449814778248237</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232219436</v>
+        <v>8.673456232219877</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264131</v>
+        <v>7.934517955264535</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178558995</v>
+        <v>6.368150178559318</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110685</v>
+        <v>4.2569397491109</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908015</v>
+        <v>2.07054834690812</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617007</v>
+        <v>0.6194385595617321</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573089</v>
+        <v>0.1344188987573157</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368482</v>
+        <v>0.002193997259368593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687047</v>
+        <v>0.02795847873687189</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696304</v>
+        <v>0.248576292769643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060142505</v>
+        <v>0.8407877060142932</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696742</v>
+        <v>1.976664446696843</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247314</v>
+        <v>3.248266893247479</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207089</v>
+        <v>4.1566632842073</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625998704</v>
+        <v>4.382618625998927</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750706737</v>
+        <v>4.278409750706953</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462384</v>
+        <v>3.951803885462585</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230224</v>
+        <v>3.381450919230395</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230127</v>
+        <v>2.341141342230245</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205103</v>
+        <v>1.257114871205167</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339870971</v>
+        <v>0.4872400339871218</v>
       </c>
       <c r="T7" t="n">
-        <v>0.119458954602992</v>
+        <v>0.119458954602998</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102028</v>
+        <v>0.001525007931102105</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31546,16 +31546,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S8" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I9" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
         <v>12.16394109335884</v>
@@ -31613,7 +31613,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
         <v>17.92262575689049</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H10" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K10" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31695,10 +31695,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q10" t="n">
         <v>5.288210368587925</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138804</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754654</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687999</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754654</v>
+        <v>72.49963293754651</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L16" t="n">
         <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179641</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7781624920204</v>
+        <v>371.7781624920203</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471201</v>
+        <v>329.27434654712</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695907</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7202608056874</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>77.61363534620402</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340062</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>612.026462921943</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547631</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637028</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>873.4079932454551</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>713.3730292547832</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>272.5441252288677</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>656.8262861055441</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>368.6994750790359</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>624.1762956767795</v>
+        <v>683.5353733496366</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629116</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>676.8754799667418</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>582.7397956757059</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412319</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>895.8503640095419</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>272.5441252288672</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165831</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,13 +38184,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
